--- a/81223.xlsx
+++ b/81223.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D5F532-F596-448B-AFA0-4FC991138209}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE51AA1-DE9A-4240-A693-0C854684D49B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B11:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +831,7 @@
         <v>-0.625</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>7</v>
       </c>
@@ -839,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>3</v>
       </c>
@@ -847,15 +847,18 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>20</v>
       </c>
@@ -863,7 +866,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>21</v>
       </c>
@@ -871,8 +874,12 @@
         <f>POWER(1+C60/C61,C61*C59)/C62</f>
         <v>1.4403361060734809</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f>POWER(1+C60/F61,F61*C59)/C62</f>
+        <v>1.4832666794631735</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>22</v>
       </c>
